--- a/Project-5-Space-Craft/LogFiles.xlsx
+++ b/Project-5-Space-Craft/LogFiles.xlsx
@@ -25,20 +25,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Data Type</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>Data Value</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <x:si>
+    <x:t>Data Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Direction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data Value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VelocityReading</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 14 1:18:55 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Outbound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9823m/s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TemperatureReading</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 14 1:18:56 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-270.45c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RadiationReading</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 November 14 1:18:57 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.15mSv</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,36 +383,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:dimension ref="A1:D1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="F6" sqref="F6"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</x:worksheet>
 </file>